--- a/biology/Botanique/Société_Forestière_de_Franche-Comté_et_des_Provinces_de_l'Est/Société_Forestière_de_Franche-Comté_et_des_Provinces_de_l'Est.xlsx
+++ b/biology/Botanique/Société_Forestière_de_Franche-Comté_et_des_Provinces_de_l'Est/Société_Forestière_de_Franche-Comté_et_des_Provinces_de_l'Est.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_Foresti%C3%A8re_de_Franche-Comt%C3%A9_et_des_Provinces_de_l%27Est</t>
+          <t>Société_Forestière_de_Franche-Comté_et_des_Provinces_de_l'Est</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plus ancienne association forestière française, la Société forestière de Franche-Comté et des Provinces de l'Est œuvre pour rapprocher tous les hommes et les femmes qui ont la forêt et ses usages comme objet d'intérêt. Elle cherche à contribuer à l'avancement des connaissances sylvicoles mais aussi aux aspects environnementaux et sociaux de la gestion sylvicole.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_Foresti%C3%A8re_de_Franche-Comt%C3%A9_et_des_Provinces_de_l%27Est</t>
+          <t>Société_Forestière_de_Franche-Comté_et_des_Provinces_de_l'Est</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Son histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Société Forestière de Franche-Comté et des Provinces de l'Est a été fondée en décembre 1890 avec comme premier président le député et maître de forges Armand Vieillard-Migeon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Société Forestière de Franche-Comté et des Provinces de l'Est a été fondée en décembre 1890 avec comme premier président le député et maître de forges Armand Vieillard-Migeon.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_Foresti%C3%A8re_de_Franche-Comt%C3%A9_et_des_Provinces_de_l%27Est</t>
+          <t>Société_Forestière_de_Franche-Comté_et_des_Provinces_de_l'Est</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Regroupant des gestionnaires, des propriétaires, des industriels du bois, des étudiants, des chercheurs, la SFFC a pour mission de promouvoir les connaissances sylvicoles.
-Elle publie des ouvrages de vulgarisation forestière, en partenariat avec le Centre Régional de la Propriété Forestière et l'Office Nationale des Forêts et avec l'appui financier de la Région Bourgogne-Franche-Comté. Elle organise des conférences et des congrès annuels et son ouvrage le plus célèbre reste le Vade-Mecum du forestier, réédité en continu depuis 1900 (édition actuelle, la 14eme, 2016). Nommé à l'origine l'Agenda du forestier, le Vade-Mecum a reçu une médaille d'argent à l'exposition universelle de 1900[2].
+Elle publie des ouvrages de vulgarisation forestière, en partenariat avec le Centre Régional de la Propriété Forestière et l'Office Nationale des Forêts et avec l'appui financier de la Région Bourgogne-Franche-Comté. Elle organise des conférences et des congrès annuels et son ouvrage le plus célèbre reste le Vade-Mecum du forestier, réédité en continu depuis 1900 (édition actuelle, la 14eme, 2016). Nommé à l'origine l'Agenda du forestier, le Vade-Mecum a reçu une médaille d'argent à l'exposition universelle de 1900.
 </t>
         </is>
       </c>
